--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-tenant-config.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-tenant-config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB5232A-BE50-4A20-898C-BF2685D1E5E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20115" windowHeight="7740" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,13 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -46,6 +53,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -58,6 +66,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -76,6 +85,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -94,6 +104,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -112,6 +123,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -143,6 +155,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -161,6 +174,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -179,6 +193,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -200,6 +215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -220,6 +236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -240,6 +257,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -260,6 +278,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -280,6 +299,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -291,6 +311,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -309,6 +330,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -320,6 +342,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -338,6 +361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -356,6 +380,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -374,6 +399,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -392,6 +418,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -439,6 +466,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -457,6 +485,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -475,6 +504,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -493,6 +523,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -504,6 +535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -522,6 +554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -540,6 +573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -559,6 +593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -577,6 +612,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -596,6 +632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -614,6 +651,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -625,6 +663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -643,6 +682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -661,6 +701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -684,6 +725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -702,6 +744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -720,6 +763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -738,6 +782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -756,6 +801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -767,6 +813,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -785,6 +832,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -795,6 +843,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -815,6 +864,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -825,6 +875,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -843,6 +894,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -861,6 +913,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -884,6 +937,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -902,6 +956,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -921,6 +976,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -940,6 +996,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -959,6 +1016,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -979,6 +1037,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -998,6 +1057,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1032,6 +1092,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1052,6 +1113,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1063,6 +1125,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1081,6 +1144,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1101,6 +1165,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1119,6 +1184,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1131,6 +1197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1149,6 +1216,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1167,6 +1235,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1185,6 +1254,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1199,6 +1269,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1217,6 +1288,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1235,6 +1307,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1253,6 +1326,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1271,6 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1286,6 +1361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1295,6 +1371,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1313,6 +1390,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1328,6 +1406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1337,6 +1416,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1355,6 +1435,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1369,6 +1450,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1387,6 +1469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1405,6 +1488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1424,6 +1508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1447,6 +1532,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1465,6 +1551,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1483,6 +1570,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1502,6 +1590,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1522,6 +1611,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1532,6 +1622,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1541,6 +1632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1552,6 +1644,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1570,6 +1663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1588,6 +1682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1606,6 +1701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1625,6 +1721,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1643,6 +1740,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1661,6 +1759,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1680,6 +1779,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1698,6 +1798,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1716,6 +1817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1734,6 +1836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1753,6 +1856,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1764,6 +1868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1774,6 +1879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1783,6 +1889,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1794,6 +1901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1812,6 +1920,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1823,6 +1932,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1841,6 +1951,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1860,6 +1971,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -1987,20 +2099,47 @@
   </si>
   <si>
     <t>remoteTokenEnabled</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>operation</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营组织</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BG0000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2011,25 +2150,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2075,157 +2214,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -2248,6 +2236,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2261,18 +2250,21 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2281,8 +2273,28 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2313,194 +2325,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2601,263 +2427,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2866,20 +2445,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2913,9 +2480,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2923,59 +2487,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3048,6 +2604,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3305,494 +2864,605 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="9" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
+      <c r="A1" s="5"/>
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="20" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="29" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="23" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="31" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="35" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="35" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="35" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="E25" s="29"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="E26" s="29"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="27" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="13.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="13.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="30.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="33" customWidth="1"/>
+    <col min="2" max="3" width="9" style="33"/>
+    <col min="4" max="4" width="21" style="33" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" style="33" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9" style="33"/>
+    <col min="10" max="10" width="13.21875" style="33" customWidth="1"/>
+    <col min="11" max="11" width="9" style="33"/>
+    <col min="12" max="12" width="12.6640625" style="33" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+    <row r="4" spans="1:13">
+      <c r="E4" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="5:9">
-      <c r="E8" t="s">
+    <row r="8" spans="1:13">
+      <c r="E8" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="33" t="s">
         <v>62</v>
       </c>
     </row>
+    <row r="9" spans="1:13">
+      <c r="E9" s="33">
+        <v>1</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="33">
+        <v>1</v>
+      </c>
+    </row>
     <row r="10" spans="1:13">
-      <c r="A10" t="s">
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H11" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J11" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K11" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L11" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M11" s="33" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="5:13">
-      <c r="E11" t="s">
+    <row r="12" spans="1:13">
+      <c r="E12" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J12" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K12" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L12" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M12" s="33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="5">
+    <row r="13" spans="1:13">
+      <c r="E13" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="33">
+        <v>1</v>
+      </c>
+      <c r="J13" s="33">
+        <v>1</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="33">
+        <v>1</v>
+      </c>
+      <c r="M13" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
         <v>43984</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B15" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C15" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E15" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F15" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G15" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H15" s="40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="5:8">
-      <c r="E14" s="6" t="s">
+    <row r="16" spans="1:13">
+      <c r="E16" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="F14">
+      <c r="F16" s="33">
         <v>0</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G16" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="H14">
+      <c r="H16" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:8">
-      <c r="E15" s="6" t="s">
+    <row r="17" spans="5:8">
+      <c r="E17" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="F15">
+      <c r="F17" s="33">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G17" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H17" s="40" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:8">
-      <c r="E16" s="6" t="s">
+    <row r="18" spans="5:8">
+      <c r="E18" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="F16">
+      <c r="F18" s="33">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G18" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="H16" t="b">
+      <c r="H18" s="33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:8">
-      <c r="E17" s="6" t="s">
+    <row r="19" spans="5:8">
+      <c r="E19" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="F17">
+      <c r="F19" s="33">
         <v>0</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G19" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="H17" t="b">
+      <c r="H19" s="33" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="5:8">
+      <c r="E20" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="33">
+        <v>1</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="E21" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="33">
+        <v>1</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8">
+      <c r="E22" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="33">
+        <v>1</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8">
+      <c r="E23" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="33">
+        <v>1</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-tenant-config.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-tenant-config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\choerodon\iam\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB5232A-BE50-4A20-898C-BF2685D1E5E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A67EEB3-595E-48B5-AC5A-197742F5FC0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <r>
       <rPr>
@@ -2099,37 +2099,6 @@
   </si>
   <si>
     <t>remoteTokenEnabled</t>
-  </si>
-  <si>
-    <t>operation</t>
-  </si>
-  <si>
-    <t>operation</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营组织</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BG0000000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2137,7 +2106,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2434,7 +2403,7 @@
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2487,21 +2456,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2525,6 +2479,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2894,11 +2863,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="5"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -2907,21 +2876,21 @@
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
@@ -3032,11 +3001,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="25" t="s">
@@ -3074,19 +3043,19 @@
       <c r="C25" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="29"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="29"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="27" t="s">
@@ -3111,352 +3080,253 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="33" customWidth="1"/>
-    <col min="2" max="3" width="9" style="33"/>
-    <col min="4" max="4" width="21" style="33" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9" style="33"/>
-    <col min="10" max="10" width="13.21875" style="33" customWidth="1"/>
-    <col min="11" max="11" width="9" style="33"/>
-    <col min="12" max="12" width="12.6640625" style="33" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="13.88671875" style="28" customWidth="1"/>
+    <col min="2" max="3" width="9" style="28"/>
+    <col min="4" max="4" width="21" style="28" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="28" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="28" customWidth="1"/>
+    <col min="9" max="9" width="9" style="28"/>
+    <col min="10" max="10" width="13.21875" style="28" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="28" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="28" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="34" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="28" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="E9" s="33">
-        <v>1</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="33">
-        <v>1</v>
-      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="A10" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="33" t="s">
+      <c r="E11" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="E12" s="33"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="36" t="s">
+      <c r="C13" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="E12" s="33" t="s">
+      <c r="G13" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="E14" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="E13" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="33">
-        <v>1</v>
-      </c>
-      <c r="J13" s="33">
-        <v>1</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="33">
-        <v>1</v>
-      </c>
-      <c r="M13" s="33">
+      <c r="F14" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="E14" s="38"/>
+      <c r="G14" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="1">
-        <v>43984</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>79</v>
+      <c r="E15" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="28">
         <v>0</v>
       </c>
-      <c r="G16" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="33">
+      <c r="G16" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="5:8">
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="28">
         <v>0</v>
       </c>
-      <c r="G17" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8">
-      <c r="E18" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="33">
-        <v>0</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8">
-      <c r="E19" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="33">
-        <v>0</v>
-      </c>
-      <c r="G19" s="40" t="s">
+      <c r="G17" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8">
-      <c r="E20" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="33">
-        <v>1</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8">
-      <c r="E21" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="33">
-        <v>1</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8">
-      <c r="E22" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="33">
-        <v>1</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8">
-      <c r="E23" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="33">
-        <v>1</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="33" t="b">
+      <c r="H17" s="28" t="b">
         <v>1</v>
       </c>
     </row>
